--- a/reports/IPS/cross_std.xlsx
+++ b/reports/IPS/cross_std.xlsx
@@ -547,64 +547,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0008943814195708994</v>
+        <v>0.0008793115538239093</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007043242665785954</v>
+        <v>0.0008114308333122142</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0008423333897159125</v>
+        <v>0.001051594049648501</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0007759165855787384</v>
+        <v>0.0007632934322619975</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001351712810486784</v>
+        <v>0.001159323706138216</v>
       </c>
       <c r="G2" t="n">
-        <v>0.006220786429660057</v>
+        <v>0.001130326746792101</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003566176887417031</v>
+        <v>0.0008681317957586136</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002364202800323625</v>
+        <v>0.0005886003928753471</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0007763371611786313</v>
+        <v>0.0008452922865103637</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0003099254589775909</v>
+        <v>0.0007810138384855576</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005548555775433774</v>
+        <v>0.0007675390738425413</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0004623056612897354</v>
+        <v>0.0004316952307923909</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001093149722477792</v>
+        <v>0.001089398860226488</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0006016481420651283</v>
+        <v>0.0005993695951858556</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0007008186906044819</v>
+        <v>0.0007163154704585994</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.002001387401181523</v>
+        <v>0.001700290608088884</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0009882730872618024</v>
+        <v>0.0008242713218604</v>
       </c>
       <c r="S2" t="n">
-        <v>0.001102164116136647</v>
+        <v>0.001055717136154676</v>
       </c>
       <c r="T2" t="n">
-        <v>0.002578523443295112</v>
+        <v>0.0006344684503148152</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0006131928202762882</v>
+        <v>0.0004297892822751597</v>
       </c>
     </row>
     <row r="3">
@@ -614,64 +614,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0003899152093979594</v>
+        <v>0.0004721189990930578</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0006829691505346823</v>
+        <v>0.0008129149059445874</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0008464138347109508</v>
+        <v>0.001053460155728134</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0007903772160619239</v>
+        <v>0.000762529974532385</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0007253038796110546</v>
+        <v>0.0006215770520723603</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006185073326190408</v>
+        <v>0.001134857771178219</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003521935969231605</v>
+        <v>0.0008683205489650796</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002342046974942108</v>
+        <v>0.0005879803073477943</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0004130735490527619</v>
+        <v>0.0004534016096247966</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00028401286294595</v>
+        <v>0.0007813959504719426</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0006025881776598095</v>
+        <v>0.0007680632282491928</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0003850212882100618</v>
+        <v>0.000431358648535579</v>
       </c>
       <c r="N3" t="n">
-        <v>0.000586410645784418</v>
+        <v>0.0005846000373358337</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0006019423027247318</v>
+        <v>0.0005996876236810931</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0007015546634961715</v>
+        <v>0.0007170998577537592</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001077253569450714</v>
+        <v>0.0009139343935959843</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0009908716298890473</v>
+        <v>0.0008263179636828226</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001103576892529707</v>
+        <v>0.001058111341857183</v>
       </c>
       <c r="T3" t="n">
-        <v>0.002599697384615101</v>
+        <v>0.0006340011583633746</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0006129776773618841</v>
+        <v>0.0004298164700465228</v>
       </c>
     </row>
     <row r="4">
@@ -681,64 +681,64 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.000700363084471692</v>
+        <v>0.0007005688857052473</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006897901346246043</v>
+        <v>0.0008436018352419694</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001342423139064568</v>
+        <v>0.001086760253367616</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001346635258170491</v>
+        <v>0.001261417420759659</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00124488178936389</v>
+        <v>0.001199956520129583</v>
       </c>
       <c r="G4" t="n">
-        <v>0.009285072308549188</v>
+        <v>0.0003322161726566331</v>
       </c>
       <c r="H4" t="n">
-        <v>0.005437015455317755</v>
+        <v>0.001171247376156038</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003980199123643608</v>
+        <v>0.000947803377460208</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0008252418643790218</v>
+        <v>0.0008184924771425414</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0005167082475362445</v>
+        <v>0.0007748606924517737</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0007918372172360785</v>
+        <v>0.0009239030610864731</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0007488531846292133</v>
+        <v>0.0007691678947198635</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001103888786649789</v>
+        <v>0.001028633278867564</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0006394249446893442</v>
+        <v>0.000663256791757739</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0007696625387826289</v>
+        <v>0.000889768751816576</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0009649898572536134</v>
+        <v>0.0009309856098601596</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0005867940485382022</v>
+        <v>0.0006193202288483472</v>
       </c>
       <c r="S4" t="n">
-        <v>0.001287068136569442</v>
+        <v>0.0009659366651984616</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0009244439907602914</v>
+        <v>0.0009811339605067047</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0008761843624083305</v>
+        <v>0.0005731272503733923</v>
       </c>
     </row>
     <row r="5">
@@ -748,64 +748,64 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0005776074916677395</v>
+        <v>0.0006229159746648374</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001385395014021152</v>
+        <v>0.001521284596049501</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001158305761274534</v>
+        <v>0.001666208645296662</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001072388037435032</v>
+        <v>0.0009426010100934454</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001000615024735336</v>
+        <v>0.0003241677143294766</v>
       </c>
       <c r="G5" t="n">
-        <v>0.008016123412632517</v>
+        <v>0.002091464011695784</v>
       </c>
       <c r="H5" t="n">
-        <v>0.004052974935493028</v>
+        <v>0.001291869150569998</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001713868703690061</v>
+        <v>0.0006199246131654042</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001647330193885085</v>
+        <v>0.0003241677143294767</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001647330193885085</v>
+        <v>0.001219531997745361</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00071669374021556</v>
+        <v>0.001084846941967848</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0001647330193885085</v>
+        <v>0.0002822736540685026</v>
       </c>
       <c r="N5" t="n">
-        <v>0.000366376402311792</v>
+        <v>0.0006625899684577987</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0009830134631390551</v>
+        <v>0.0009926755782310979</v>
       </c>
       <c r="P5" t="n">
-        <v>0.00110290904416948</v>
+        <v>0.001127781646292306</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.001854217070294789</v>
+        <v>0.001570596539067627</v>
       </c>
       <c r="R5" t="n">
-        <v>0.001804748197812636</v>
+        <v>0.001578409959127312</v>
       </c>
       <c r="S5" t="n">
-        <v>0.00183200932197213</v>
+        <v>0.001763769094265311</v>
       </c>
       <c r="T5" t="n">
-        <v>0.00505700514039197</v>
+        <v>0.0008384987858052897</v>
       </c>
       <c r="U5" t="n">
-        <v>0.000908160416394176</v>
+        <v>0.0006498934788600479</v>
       </c>
     </row>
   </sheetData>
